--- a/pathogenic_mutations2/mutations2/pathogenic_input.xlsx
+++ b/pathogenic_mutations2/mutations2/pathogenic_input.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4E790BAE-6C40-4290-92C4-7CE80901B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="15720" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="15720" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2838,10 +2838,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3143,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
